--- a/participants/participant_11/participant_11_task_orders.xlsx
+++ b/participants/participant_11/participant_11_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16498730368071537" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16498730379480581" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16498730379550278" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16498730380130126" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16498730380760953" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16502911469084547" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-165029114866179" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16502911486627953" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-1650291148720528" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16502911487985556" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16498730367791522.csv</t>
+          <t>go_stims-16502911468745914.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16498730367901864.csv</t>
+          <t>GNG_stims-16502911468912878.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16498730367911904.csv</t>
+          <t>go_stims-1650291146892322.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16498730368062003.csv</t>
+          <t>GNG_stims-16502911469074512.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>OB-1649873037373099.csv</t>
+          <t>OB-1650291147791087.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TB-16498730379230125.csv</t>
+          <t>TB-1650291148260164.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ZB-match_0-16498730371591022.csv</t>
+          <t>ZB-match_6-16502911469745142.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>OB-16498730376951044.csv</t>
+          <t>TB-16502911479695494.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ZB-match_8-16498730370651047.csv</t>
+          <t>ZB-match_7-165029114719781.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TB-16498730378940501.csv</t>
+          <t>OB-16502911478653367.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ZB-match_3-1649873037188101.csv</t>
+          <t>ZB-match_1-16502911472707343.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>OB-1649873037501129.csv</t>
+          <t>TB-1650291148638005.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TB-16498730377761009.csv</t>
+          <t>OB-16502911478812156.csv</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>eyes closed</t>
+          <t>eyes open</t>
         </is>
       </c>
     </row>
@@ -642,7 +642,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>eyes open</t>
+          <t>eyes closed</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-1649873037980049.csv</t>
+          <t>MM_stims-16502911486773612.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16498730379570174.csv</t>
+          <t>ZM_stims-16502911486647913.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16498730379960196.csv</t>
+          <t>MM_stims-16502911487035546.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-1649873037981014.csv</t>
+          <t>ZM_stims-16502911486783614.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16498730380120409.csv</t>
+          <t>MM_stims-16502911487195306.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16498730379970512.csv</t>
+          <t>ZM_stims-16502911487045622.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>vSAT_stims-16498730380600524.csv</t>
+          <t>SAT_stims-16502911487225702.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAT_stims-16498730380160134.csv</t>
+          <t>SAT_stims-1650291148735407.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vSAT_stims-16498730380440488.csv</t>
+          <t>vSAT_stims-16502911487840965.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAT_stims-16498730380280507.csv</t>
+          <t>vSAT_stims-1650291148752206.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_11/participant_11_task_orders.xlsx
+++ b/participants/participant_11/participant_11_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16502911469084547" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-165029114866179" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16502911486627953" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-1650291148720528" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16502911487985556" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16504777985325565" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16504778005236228" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-1650477800524555" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16504778005715551" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16504778006355858" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16502911468745914.csv</t>
+          <t>go_stims-16504777984965587.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16502911468912878.csv</t>
+          <t>GNG_stims-16504777985165966.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-1650291146892322.csv</t>
+          <t>go_stims-16504777985175536.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16502911469074512.csv</t>
+          <t>GNG_stims-16504777985315874.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>OB-1650291147791087.csv</t>
+          <t>ZB-match_5-1650477799088553.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TB-1650291148260164.csv</t>
+          <t>ZB-match_3-16504777990375855.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ZB-match_6-16502911469745142.csv</t>
+          <t>TB-1650477800107552.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TB-16502911479695494.csv</t>
+          <t>OB-16504777995305877.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ZB-match_7-165029114719781.csv</t>
+          <t>OB-16504777993665879.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>OB-16502911478653367.csv</t>
+          <t>ZB-match_8-1650477798954584.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ZB-match_1-16502911472707343.csv</t>
+          <t>OB-16504777994455872.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TB-1650291148638005.csv</t>
+          <t>TB-1650477800511588.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>OB-16502911478812156.csv</t>
+          <t>TB-1650477800235585.csv</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>eyes open</t>
+          <t>eyes closed</t>
         </is>
       </c>
     </row>
@@ -642,7 +642,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>eyes closed</t>
+          <t>eyes open</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16502911486773612.csv</t>
+          <t>MM_stims-16504778005395849.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16502911486647913.csv</t>
+          <t>ZM_stims-16504778005255568.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16502911487035546.csv</t>
+          <t>MM_stims-16504778005555844.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16502911486783614.csv</t>
+          <t>ZM_stims-16504778005395849.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16502911487195306.csv</t>
+          <t>MM_stims-16504778005715551.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16502911487045622.csv</t>
+          <t>ZM_stims-1650477800556553.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAT_stims-16502911487225702.csv</t>
+          <t>SAT_stims-16504778005745575.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAT_stims-1650291148735407.csv</t>
+          <t>SAT_stims-1650477800587585.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vSAT_stims-16502911487840965.csv</t>
+          <t>vSAT_stims-16504778006035852.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>vSAT_stims-1650291148752206.csv</t>
+          <t>vSAT_stims-1650477800619553.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_11/participant_11_task_orders.xlsx
+++ b/participants/participant_11/participant_11_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16504777985325565" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16504778005236228" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-1650477800524555" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16504778005715551" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16504778006355858" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-1650996087652503" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-1650996089884481" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-1650996089884481" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16509960899405038" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16509960900045" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16504777984965587.csv</t>
+          <t>go_stims-16509960876124754.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16504777985165966.csv</t>
+          <t>GNG_stims-16509960876365027.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16504777985175536.csv</t>
+          <t>go_stims-16509960876365027.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16504777985315874.csv</t>
+          <t>GNG_stims-1650996087652503.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ZB-match_5-1650477799088553.csv</t>
+          <t>OB-1650996088428465.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZB-match_3-16504777990375855.csv</t>
+          <t>ZB-match_3-1650996087956463.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TB-1650477800107552.csv</t>
+          <t>ZB-match_9-16509960880924666.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>OB-16504777995305877.csv</t>
+          <t>OB-16509960889164999.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>OB-16504777993665879.csv</t>
+          <t>TB-16509960890924957.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZB-match_8-1650477798954584.csv</t>
+          <t>TB-16509960898604972.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>OB-16504777994455872.csv</t>
+          <t>ZB-match_9-16509960879004633.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TB-1650477800511588.csv</t>
+          <t>TB-16509960893885045.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TB-1650477800235585.csv</t>
+          <t>OB-16509960889404688.csv</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16504778005395849.csv</t>
+          <t>MM_stims-1650996089908499.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16504778005255568.csv</t>
+          <t>ZM_stims-1650996089884481.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16504778005555844.csv</t>
+          <t>MM_stims-16509960899244711.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16504778005395849.csv</t>
+          <t>ZM_stims-1650996089908499.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16504778005715551.csv</t>
+          <t>MM_stims-16509960899405038.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-1650477800556553.csv</t>
+          <t>ZM_stims-16509960899244711.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAT_stims-16504778005745575.csv</t>
+          <t>SAT_stims-16509960899405038.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAT_stims-1650477800587585.csv</t>
+          <t>SAT_stims-16509960899564643.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vSAT_stims-16504778006035852.csv</t>
+          <t>vSAT_stims-1650996089988464.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>vSAT_stims-1650477800619553.csv</t>
+          <t>vSAT_stims-16509960899724967.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_11/participant_11_task_orders.xlsx
+++ b/participants/participant_11/participant_11_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-1650996087652503" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-1650996089884481" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-1650996089884481" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16509960899405038" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16509960900045" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16511686782573843" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-1651168681466479" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16511686814674158" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16511686815154202" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16511686815944245" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16509960876124754.csv</t>
+          <t>go_stims-16511686782215765.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16509960876365027.csv</t>
+          <t>GNG_stims-16511686782404156.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16509960876365027.csv</t>
+          <t>go_stims-16511686782413797.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-1650996087652503.csv</t>
+          <t>GNG_stims-16511686782564163.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>OB-1650996088428465.csv</t>
+          <t>TB-16511686805014184.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZB-match_3-1650996087956463.csv</t>
+          <t>OB-16511686793063512.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ZB-match_9-16509960880924666.csv</t>
+          <t>TB-16511686814504569.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>OB-16509960889164999.csv</t>
+          <t>OB-16511686790303876.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TB-16509960890924957.csv</t>
+          <t>TB-16511686809174204.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TB-16509960898604972.csv</t>
+          <t>ZB-match_1-16511686786173558.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ZB-match_9-16509960879004633.csv</t>
+          <t>OB-1651168680156388.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TB-16509960893885045.csv</t>
+          <t>ZB-match_0-16511686785543888.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>OB-16509960889404688.csv</t>
+          <t>ZB-match_0-1651168678710387.csv</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-1650996089908499.csv</t>
+          <t>MM_stims-16511686814824507.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-1650996089884481.csv</t>
+          <t>ZM_stims-16511686814704287.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16509960899244711.csv</t>
+          <t>MM_stims-1651168681498453.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-1650996089908499.csv</t>
+          <t>ZM_stims-165116868148342.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16509960899405038.csv</t>
+          <t>MM_stims-16511686815144572.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16509960899244711.csv</t>
+          <t>ZM_stims-16511686814994278.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAT_stims-16509960899405038.csv</t>
+          <t>vSAT_stims-1651168681578419.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAT_stims-16509960899564643.csv</t>
+          <t>SAT_stims-1651168681546421.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vSAT_stims-1650996089988464.csv</t>
+          <t>SAT_stims-16511686815204191.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>vSAT_stims-16509960899724967.csv</t>
+          <t>vSAT_stims-16511686815624557.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_11/participant_11_task_orders.xlsx
+++ b/participants/participant_11/participant_11_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16511686782573843" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-1651168681466479" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16511686814674158" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16511686815154202" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16511686815944245" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16512555109597478" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16512555130667443" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-1651255513073745" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16512555131317508" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16512555132098255" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16511686782215765.csv</t>
+          <t>go_stims-16512555109257472.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16511686782404156.csv</t>
+          <t>GNG_stims-16512555109437459.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16511686782413797.csv</t>
+          <t>go_stims-16512555109447474.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16511686782564163.csv</t>
+          <t>GNG_stims-16512555109587457.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TB-16511686805014184.csv</t>
+          <t>ZB-match_2-16512555117517457.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>OB-16511686793063512.csv</t>
+          <t>OB-16512555120587444.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TB-16511686814504569.csv</t>
+          <t>OB-16512555121307464.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>OB-16511686790303876.csv</t>
+          <t>TB-16512555125597453.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TB-16511686809174204.csv</t>
+          <t>ZB-match_5-16512555118897471.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZB-match_1-16511686786173558.csv</t>
+          <t>OB-16512555119097455.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>OB-1651168680156388.csv</t>
+          <t>TB-16512555130507455.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ZB-match_0-16511686785543888.csv</t>
+          <t>TB-16512555130047457.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ZB-match_0-1651168678710387.csv</t>
+          <t>ZB-match_6-1651255511185746.csv</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>eyes closed</t>
+          <t>eyes open</t>
         </is>
       </c>
     </row>
@@ -642,7 +642,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>eyes open</t>
+          <t>eyes closed</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16511686814824507.csv</t>
+          <t>MM_stims-1651255513097748.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16511686814704287.csv</t>
+          <t>ZM_stims-1651255513075749.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-1651168681498453.csv</t>
+          <t>MM_stims-16512555131137452.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-165116868148342.csv</t>
+          <t>ZM_stims-16512555130987487.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16511686815144572.csv</t>
+          <t>MM_stims-1651255513129746.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16511686814994278.csv</t>
+          <t>ZM_stims-16512555131147473.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>vSAT_stims-1651168681578419.csv</t>
+          <t>SAT_stims-16512555131617472.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAT_stims-1651168681546421.csv</t>
+          <t>vSAT_stims-1651255513193748.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SAT_stims-16511686815204191.csv</t>
+          <t>SAT_stims-16512555131367471.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>vSAT_stims-16511686815624557.csv</t>
+          <t>vSAT_stims-16512555131777444.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_11/participant_11_task_orders.xlsx
+++ b/participants/participant_11/participant_11_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16512555109597478" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16512555130667443" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-1651255513073745" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16512555131317508" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16512555132098255" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="vSAT_TO-16515889373791623" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="GNG_TO-16515889374282074" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16515889374302855" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-165158893748928" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="NB_TO-16515889393372045" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16512555109257472.csv</t>
+          <t>SAT_stims-16515889373164954.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16512555109437459.csv</t>
+          <t>SAT_stims-1651588937334163.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16512555109447474.csv</t>
+          <t>vSAT_stims-1651588937348884.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16512555109587457.csv</t>
+          <t>vSAT_stims-1651588937363842.csv</t>
         </is>
       </c>
     </row>
@@ -495,7 +495,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ZB-match_2-16512555117517457.csv</t>
+          <t>go_stims-16515889373860152.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>OB-16512555120587444.csv</t>
+          <t>GNG_stims-16515889374118395.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>OB-16512555121307464.csv</t>
+          <t>go_stims-16515889374138384.csv</t>
         </is>
       </c>
     </row>
@@ -546,57 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TB-16512555125597453.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>ZB-match_5-16512555118897471.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>OB-16512555119097455.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>TB-16512555130507455.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>TB-16512555130047457.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>ZB-match_6-1651255511185746.csv</t>
+          <t>GNG_stims-16515889374272134.csv</t>
         </is>
       </c>
     </row>
@@ -632,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>eyes open</t>
+          <t>eyes closed</t>
         </is>
       </c>
     </row>
@@ -642,7 +592,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>eyes closed</t>
+          <t>eyes open</t>
         </is>
       </c>
     </row>
@@ -678,7 +628,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-1651255513097748.csv</t>
+          <t>MM_stims-16515889374574757.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +638,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-1651255513075749.csv</t>
+          <t>ZM_stims-16515889374353373.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +648,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16512555131137452.csv</t>
+          <t>MM_stims-16515889374731102.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +658,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16512555130987487.csv</t>
+          <t>ZM_stims-1651588937458473.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +668,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-1651255513129746.csv</t>
+          <t>MM_stims-16515889374882798.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +678,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16512555131147473.csv</t>
+          <t>ZM_stims-16515889374751182.csv</t>
         </is>
       </c>
     </row>
@@ -743,7 +693,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -764,7 +714,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAT_stims-16512555131617472.csv</t>
+          <t>TB-16515889386731813.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +724,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>vSAT_stims-1651255513193748.csv</t>
+          <t>OB-165158893829422.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +734,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SAT_stims-16512555131367471.csv</t>
+          <t>ZB-match_8-16515889379390564.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +744,57 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>vSAT_stims-16512555131777444.csv</t>
+          <t>TB-16515889390192635.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>OB-16515889381802263.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ZB-match_4-165158893778057.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>OB-16515889383093808.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ZB-match_5-16515889381104956.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>TB-1651588939307899.csv</t>
         </is>
       </c>
     </row>
